--- a/Jogos_do_Dia/2023-04-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,10 +632,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
         <v>1.95</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
@@ -873,10 +873,10 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.28</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,7 +1313,7 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N8" t="n">
         <v>1.9</v>
@@ -1355,19 +1355,19 @@
         <v>1.45</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF8" t="n">
         <v>1.65</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.36</v>
+        <v>2.11</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>2.97</v>
       </c>
       <c r="M9" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -1465,19 +1465,19 @@
         <v>1.14</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF9" t="n">
         <v>1.65</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G11" t="n">
         <v>4.2</v>
@@ -1643,10 +1643,10 @@
         <v>4.05</v>
       </c>
       <c r="M11" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="N11" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="O11" t="n">
         <v>1.31</v>
@@ -1694,7 +1694,7 @@
         <v>3.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE11" t="n">
         <v>1.32</v>
@@ -2464,7 +2464,7 @@
         <v>3.16</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE18" t="n">
         <v>1.57</v>
@@ -2476,7 +2476,7 @@
         <v>2.4</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="19">
@@ -2574,7 +2574,7 @@
         <v>1.69</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE19" t="n">
         <v>1.48</v>
@@ -2895,28 +2895,28 @@
         <v>3.44</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="23">
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
         <v>2.55</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="N24" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3665,28 +3665,28 @@
         <v>2.85</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="30">
@@ -3885,28 +3885,28 @@
         <v>3.13</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG31" t="n">
         <v>2</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="32">
@@ -4105,28 +4105,28 @@
         <v>2.91</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="34">
@@ -4215,28 +4215,28 @@
         <v>3.29</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -4325,28 +4325,28 @@
         <v>3.19</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -4435,28 +4435,28 @@
         <v>2.39</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="37">
@@ -4545,28 +4545,28 @@
         <v>3.32</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="38">
@@ -4655,28 +4655,28 @@
         <v>2.52</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="39">
@@ -4985,28 +4985,28 @@
         <v>2.98</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="42">
@@ -5104,19 +5104,19 @@
         <v>2.1</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="43">
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="I45" t="n">
         <v>1.09</v>
@@ -5383,10 +5383,10 @@
         <v>2.95</v>
       </c>
       <c r="M45" t="n">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="N45" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="O45" t="n">
         <v>1.47</v>
@@ -5511,13 +5511,13 @@
         <v>1.44</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V46" t="n">
         <v>0.07000000000000001</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I48" t="n">
         <v>1.09</v>
@@ -5713,10 +5713,10 @@
         <v>2.65</v>
       </c>
       <c r="M48" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N48" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="O48" t="n">
         <v>1.44</v>
@@ -5755,28 +5755,28 @@
         <v>3.52</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE48" t="n">
         <v>1.9</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="49">
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.2</v>
+        <v>4.29</v>
       </c>
       <c r="G49" t="n">
         <v>3.4</v>
       </c>
       <c r="H49" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="I49" t="n">
         <v>1.04</v>
@@ -5823,10 +5823,10 @@
         <v>3.75</v>
       </c>
       <c r="M49" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="N49" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="O49" t="n">
         <v>1.36</v>
@@ -5880,13 +5880,13 @@
         <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG49" t="n">
         <v>2</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="50">
@@ -6195,28 +6195,28 @@
         <v>2.61</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="53">
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="G53" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H53" t="n">
-        <v>2.88</v>
+        <v>3.18</v>
       </c>
       <c r="I53" t="n">
         <v>1.06</v>
@@ -6263,10 +6263,10 @@
         <v>3.15</v>
       </c>
       <c r="M53" t="n">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="N53" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O53" t="n">
         <v>1.42</v>
@@ -6305,28 +6305,28 @@
         <v>3.25</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="54">
@@ -6546,7 +6546,7 @@
         <v>2.63</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -6644,10 +6644,10 @@
         <v>2.66</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF56" t="n">
         <v>1.55</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>6.32</v>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>3.54</v>
       </c>
       <c r="H59" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="I59" t="n">
         <v>1.05</v>
@@ -6923,10 +6923,10 @@
         <v>3.2</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="N59" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="O59" t="n">
         <v>1.42</v>
@@ -6965,28 +6965,28 @@
         <v>2.86</v>
       </c>
       <c r="AA59" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AB59" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AD59" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE59" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AG59" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH59" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="60">
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="G60" t="n">
-        <v>4.75</v>
+        <v>4.54</v>
       </c>
       <c r="H60" t="n">
-        <v>12</v>
+        <v>10.51</v>
       </c>
       <c r="I60" t="n">
         <v>1.06</v>
@@ -7033,10 +7033,10 @@
         <v>2.9</v>
       </c>
       <c r="M60" t="n">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="N60" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="O60" t="n">
         <v>1.44</v>
@@ -7075,28 +7075,28 @@
         <v>2.83</v>
       </c>
       <c r="AA60" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE60" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="61">
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H61" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="I61" t="n">
         <v>1.07</v>
@@ -7143,10 +7143,10 @@
         <v>2.8</v>
       </c>
       <c r="M61" t="n">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="N61" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="O61" t="n">
         <v>1.46</v>
@@ -7185,28 +7185,28 @@
         <v>2.75</v>
       </c>
       <c r="AA61" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB61" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AD61" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE61" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF61" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG61" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH61" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="62">
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="G62" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I62" t="n">
         <v>1.04</v>
@@ -7253,10 +7253,10 @@
         <v>3.8</v>
       </c>
       <c r="M62" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="N62" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O62" t="n">
         <v>1.33</v>
@@ -7342,13 +7342,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="G63" t="n">
         <v>3.25</v>
       </c>
       <c r="H63" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I63" t="n">
         <v>1.05</v>
@@ -7363,10 +7363,10 @@
         <v>3.4</v>
       </c>
       <c r="M63" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="N63" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="O63" t="n">
         <v>1.36</v>
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.31</v>
+        <v>2.07</v>
       </c>
       <c r="G64" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>2.85</v>
+        <v>3.65</v>
       </c>
       <c r="I64" t="n">
         <v>1.1</v>
@@ -7473,10 +7473,10 @@
         <v>2.48</v>
       </c>
       <c r="M64" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="N64" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="O64" t="n">
         <v>1.6</v>
@@ -7562,13 +7562,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H65" t="n">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -7583,10 +7583,10 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="N65" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -7672,13 +7672,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="G66" t="n">
         <v>3.9</v>
       </c>
       <c r="H66" t="n">
-        <v>7.5</v>
+        <v>5.99</v>
       </c>
       <c r="I66" t="n">
         <v>1.07</v>
@@ -7693,10 +7693,10 @@
         <v>3</v>
       </c>
       <c r="M66" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="N66" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O66" t="n">
         <v>1.39</v>
@@ -7744,19 +7744,19 @@
         <v>2.75</v>
       </c>
       <c r="AD66" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE66" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF66" t="n">
         <v>1.98</v>
       </c>
       <c r="AG66" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AH66" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-04-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="N2" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="X2" t="n">
         <v>1.59</v>
@@ -790,10 +790,10 @@
         <v>2.15</v>
       </c>
       <c r="V3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W3" t="n">
         <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.2</v>
       </c>
       <c r="X3" t="n">
         <v>1.79</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
         <v>1.03</v>
@@ -876,7 +876,7 @@
         <v>1.57</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O4" t="n">
         <v>1.28</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.25</v>
+        <v>5.2</v>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="H8" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="N8" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.11</v>
+        <v>2.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>2.97</v>
       </c>
       <c r="M9" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="N9" t="n">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>5.42</v>
       </c>
       <c r="I11" t="n">
         <v>1.04</v>
@@ -1643,10 +1643,10 @@
         <v>4.05</v>
       </c>
       <c r="M11" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="N11" t="n">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="O11" t="n">
         <v>1.31</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE21" t="n">
         <v>1.48</v>
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
         <v>2.55</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -5383,10 +5383,10 @@
         <v>2.95</v>
       </c>
       <c r="M45" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="N45" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O45" t="n">
         <v>1.47</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.8</v>
+        <v>1.51</v>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H48" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="I48" t="n">
         <v>1.09</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.29</v>
+        <v>4.1</v>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H49" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="I49" t="n">
         <v>1.04</v>
@@ -5823,10 +5823,10 @@
         <v>3.75</v>
       </c>
       <c r="M49" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="N49" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="O49" t="n">
         <v>1.36</v>
@@ -5865,19 +5865,19 @@
         <v>2.35</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF49" t="n">
         <v>1.57</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="G53" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H53" t="n">
-        <v>3.18</v>
+        <v>2.89</v>
       </c>
       <c r="I53" t="n">
         <v>1.06</v>
@@ -6263,10 +6263,10 @@
         <v>3.15</v>
       </c>
       <c r="M53" t="n">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="N53" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O53" t="n">
         <v>1.42</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6.32</v>
+        <v>4</v>
       </c>
       <c r="G59" t="n">
-        <v>3.54</v>
+        <v>3.45</v>
       </c>
       <c r="H59" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="I59" t="n">
         <v>1.05</v>
@@ -6923,10 +6923,10 @@
         <v>3.2</v>
       </c>
       <c r="M59" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="N59" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="O59" t="n">
         <v>1.42</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="G60" t="n">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
-        <v>10.51</v>
+        <v>7.2</v>
       </c>
       <c r="I60" t="n">
         <v>1.06</v>
@@ -7033,10 +7033,10 @@
         <v>2.9</v>
       </c>
       <c r="M60" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="N60" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="O60" t="n">
         <v>1.44</v>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="G61" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
-        <v>3.33</v>
+        <v>2.67</v>
       </c>
       <c r="I61" t="n">
         <v>1.07</v>
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H62" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
         <v>1.04</v>
@@ -7342,13 +7342,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="G63" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H63" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="I63" t="n">
         <v>1.05</v>
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.07</v>
+        <v>2.31</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H64" t="n">
-        <v>3.65</v>
+        <v>2.85</v>
       </c>
       <c r="I64" t="n">
         <v>1.1</v>
@@ -7473,10 +7473,10 @@
         <v>2.48</v>
       </c>
       <c r="M64" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="N64" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="O64" t="n">
         <v>1.6</v>
@@ -7515,28 +7515,28 @@
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
       </c>
       <c r="AE64" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG64" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="65">
@@ -7562,13 +7562,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="G65" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H65" t="n">
-        <v>2.79</v>
+        <v>2.76</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -7583,10 +7583,10 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="N65" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -7675,10 +7675,10 @@
         <v>1.5</v>
       </c>
       <c r="G66" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H66" t="n">
-        <v>5.99</v>
+        <v>5.4</v>
       </c>
       <c r="I66" t="n">
         <v>1.07</v>
@@ -7693,10 +7693,10 @@
         <v>3</v>
       </c>
       <c r="M66" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="N66" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="O66" t="n">
         <v>1.39</v>
